--- a/Excel BIKE SALES DASHBOARD.xlsx
+++ b/Excel BIKE SALES DASHBOARD.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Eli\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007B0170-0517-4F15-908C-FBB9DBF036AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71487B87-F9BD-421F-9033-F2C90BF53D3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dashboard" sheetId="5" r:id="rId1"/>
-    <sheet name="Pivot tables" sheetId="4" r:id="rId2"/>
+    <sheet name="Pivot tables" sheetId="4" r:id="rId1"/>
+    <sheet name="Dashboard" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="Slicer_Education">#N/A</definedName>
@@ -23,7 +23,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="28" r:id="rId3"/>
+    <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{BBE1A952-AA13-448e-AADC-164F8A28A991}">
@@ -111,7 +111,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="19" x14ac:knownFonts="1">
     <font>
@@ -602,19 +602,17 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="41"/>
     </xf>
@@ -665,7 +663,7 @@
   </cellStyles>
   <dxfs count="1">
     <dxf>
-      <numFmt numFmtId="169" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+      <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -694,7 +692,2017 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel bIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable2</c:name>
+    <c:name>[Excel BIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable2</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Avergae</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Income Per Purchase</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$B$3:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$B$5:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8B8A-49AE-A6A2-ECA4C1E14B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$C$3:$C$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$A$5:$A$7</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Female</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Male</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$C$5:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>70000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>120000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8B8A-49AE-A6A2-ECA4C1E14B2C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="690811936"/>
+        <c:axId val="690805096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="690811936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Gender</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690805096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="690805096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Income</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690811936"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:dTable>
+        <c:showHorzBorder val="1"/>
+        <c:showVertBorder val="1"/>
+        <c:showOutline val="1"/>
+        <c:showKeys val="1"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr rtl="0">
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+      </c:dTable>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel BIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable3</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Customer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Communte</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$B$24:$B$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$A$26:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0-1 Miles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-2 Miles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-10 Miles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>More than 10 Miles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$B$26:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CAD3-49DA-BF36-B5EC50FCD305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$C$24:$C$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$A$26:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0-1 Miles</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1-2 Miles</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5-10 Miles</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>More than 10 Miles</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$C$26:$C$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CAD3-49DA-BF36-B5EC50FCD305}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="690704296"/>
+        <c:axId val="690710776"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="690704296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Commute</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Distance</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690710776"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="690710776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="690704296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel BIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Customer</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Age Brackets</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:ln w="28575" cap="rnd">
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="circle"/>
+          <c:size val="5"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$B$45:$B$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>No</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Middle Age31-54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Old 55+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Adolescent 0-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$B$47:$B$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E670-48A5-BB68-365BF49A93BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Pivot tables'!$C$45:$C$46</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Yes</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Pivot tables'!$A$47:$A$50</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Middle Age31-54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Old 55+</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Adolescent 0-30</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Pivot tables'!$C$47:$C$50</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E670-48A5-BB68-365BF49A93BD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="499889080"/>
+        <c:axId val="499891960"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="499889080"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Age</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Brackets</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499891960"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="499891960"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="499889080"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="zero"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Excel BIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable2</c:name>
     <c:fmtId val="4"/>
   </c:pivotSource>
   <c:chart>
@@ -1613,7 +3621,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -1627,7 +3635,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel bIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable3</c:name>
+    <c:name>[Excel BIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable3</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -2361,7 +4369,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2375,7 +4383,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Excel bIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable4</c:name>
+    <c:name>[Excel BIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable4</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -3030,2040 +5038,6 @@
   <c:spPr>
     <a:solidFill>
       <a:schemeClr val="lt1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Excel bIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable2</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Avergae</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Income Per Purchase</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot tables'!$B$3:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot tables'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot tables'!$B$5:$B$7</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>100000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-8B8A-49AE-A6A2-ECA4C1E14B2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot tables'!$C$3:$C$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot tables'!$A$5:$A$7</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>Female</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Male</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot tables'!$C$5:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"??_);_(@_)</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>70000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>120000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-8B8A-49AE-A6A2-ECA4C1E14B2C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="690811936"/>
-        <c:axId val="690805096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="690811936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Gender</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690805096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="690805096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Income</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690811936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:dTable>
-        <c:showHorzBorder val="1"/>
-        <c:showVertBorder val="1"/>
-        <c:showOutline val="1"/>
-        <c:showKeys val="1"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr rtl="0">
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-      </c:dTable>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Excel bIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable3</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Customer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Communte</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot tables'!$B$24:$B$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot tables'!$A$26:$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0-1 Miles</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1-2 Miles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5-10 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>More than 10 Miles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot tables'!$B$26:$B$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CAD3-49DA-BF36-B5EC50FCD305}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot tables'!$C$24:$C$25</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot tables'!$A$26:$A$30</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0-1 Miles</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1-2 Miles</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5-10 Miles</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>More than 10 Miles</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot tables'!$C$26:$C$30</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-CAD3-49DA-BF36-B5EC50FCD305}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="690704296"/>
-        <c:axId val="690710776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="690704296"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Commute</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Distance</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690710776"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="690710776"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="690704296"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:extLst>
-    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
-      <c14:pivotOptions>
-        <c14:dropZoneFilter val="1"/>
-        <c14:dropZoneCategories val="1"/>
-        <c14:dropZoneData val="1"/>
-        <c14:dropZoneSeries val="1"/>
-        <c14:dropZonesVisible val="1"/>
-      </c14:pivotOptions>
-    </c:ext>
-    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
-      <c16:pivotOptions16>
-        <c16:showExpandCollapseFieldButtons val="1"/>
-      </c16:pivotOptions16>
-    </c:ext>
-  </c:extLst>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:pivotSource>
-    <c:name>[Excel bIKE SALES DASHBOARD.xlsx]Pivot tables!PivotTable4</c:name>
-    <c:fmtId val="0"/>
-  </c:pivotSource>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Customer</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Age Brackets</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:pivotFmts>
-      <c:pivotFmt>
-        <c:idx val="0"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-      <c:pivotFmt>
-        <c:idx val="1"/>
-        <c:spPr>
-          <a:ln w="28575" cap="rnd">
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:marker>
-          <c:symbol val="circle"/>
-          <c:size val="5"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln w="9525">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:marker>
-        <c:dLbl>
-          <c:idx val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-              <a:spAutoFit/>
-            </a:bodyPr>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="75000"/>
-                      <a:lumOff val="25000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
-          </c:extLst>
-        </c:dLbl>
-      </c:pivotFmt>
-    </c:pivotFmts>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="stacked"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot tables'!$B$45:$B$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>No</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot tables'!$A$47:$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Middle Age31-54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Old 55+</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Adolescent 0-30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot tables'!$B$47:$B$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E670-48A5-BB68-365BF49A93BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'Pivot tables'!$C$45:$C$46</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Yes</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Pivot tables'!$A$47:$A$50</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>Middle Age31-54</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Old 55+</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Adolescent 0-30</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Pivot tables'!$C$47:$C$50</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-E670-48A5-BB68-365BF49A93BD}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="499889080"/>
-        <c:axId val="499891960"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="499889080"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Age</a:t>
-                </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Brackets</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499891960"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="499891960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="499889080"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="zero"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
@@ -5854,6 +5828,1515 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="237">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6366,7 +7849,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="239">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -6887,1516 +8370,120 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F857DB85-4376-E079-83F5-95EF2A4F338F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB4B826-8F4B-E50C-FB9A-81432D40A27A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F68FA9-5CE0-C9A0-F1B4-6F97B08A16D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -8525,8 +8612,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>174625</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="6" name="Marital Status">
@@ -8549,7 +8636,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8603,8 +8690,8 @@
       <xdr:row>26</xdr:row>
       <xdr:rowOff>2885</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="7" name="Education">
@@ -8627,7 +8714,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8681,8 +8768,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:graphicFrame macro="">
           <xdr:nvGraphicFramePr>
             <xdr:cNvPr id="8" name="Region">
@@ -8705,7 +8792,7 @@
           </a:graphic>
         </xdr:graphicFrame>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="0" name=""/>
@@ -8744,119 +8831,6 @@
         </xdr:sp>
       </mc:Fallback>
     </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F857DB85-4376-E079-83F5-95EF2A4F338F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>38100</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCB4B826-8F4B-E50C-FB9A-81432D40A27A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0F68FA9-5CE0-C9A0-F1B4-6F97B08A16D2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -24958,7 +24932,158 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF5BF828-E480-436D-B186-F717C88432BD}" name="PivotTable4" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDBE7109-DABF-431B-9814-1E1782C1E5CA}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="14">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="3">
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="4"/>
+        <item x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="4">
+        <item h="1" x="0"/>
+        <item h="1" x="2"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisCol" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="13"/>
+  </colFields>
+  <colItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="165"/>
+  </dataFields>
+  <formats count="1">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="1" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="4" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="4" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="13" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{EF5BF828-E480-436D-B186-F717C88432BD}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="A45:D50" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25110,8 +25235,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A36383B-3129-405C-8C9B-D2E064F52F91}" name="PivotTable3" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1A36383B-3129-405C-8C9B-D2E064F52F91}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="11">
   <location ref="A24:D30" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="14">
     <pivotField showAll="0"/>
@@ -25242,157 +25367,6 @@
       </pivotArea>
     </chartFormat>
     <chartFormat chart="2" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{FDBE7109-DABF-431B-9814-1E1782C1E5CA}" name="PivotTable2" cacheId="28" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="A3:D7" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="14">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="3">
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" numFmtId="164" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="4"/>
-        <item x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="4">
-        <item h="1" x="0"/>
-        <item h="1" x="2"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisCol" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="13"/>
-  </colFields>
-  <colItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Average of Income" fld="3" subtotal="average" baseField="2" baseItem="0" numFmtId="169"/>
-  </dataFields>
-  <formats count="1">
-    <format dxfId="0">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-  </formats>
-  <chartFormats count="4">
-    <chartFormat chart="0" format="0" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="1" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="4" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="13" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="4" format="5" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="1" selected="0">
@@ -25779,492 +25753,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DEDC9-7D96-403A-B9F5-80E3B033F387}">
-  <dimension ref="A1:OV4"/>
-  <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" zoomScale="66" workbookViewId="0">
-      <selection activeCell="Y22" sqref="Y22"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:412" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I1" s="6"/>
-      <c r="T1" s="7"/>
-      <c r="U1" s="7"/>
-      <c r="V1" s="7"/>
-      <c r="W1" s="7"/>
-      <c r="X1" s="7"/>
-      <c r="Y1" s="7"/>
-      <c r="Z1" s="7"/>
-      <c r="AA1" s="7"/>
-      <c r="AB1" s="7"/>
-      <c r="AC1" s="7"/>
-      <c r="AD1" s="7"/>
-      <c r="AE1" s="7"/>
-      <c r="AF1" s="7"/>
-      <c r="AG1" s="7"/>
-      <c r="AH1" s="7"/>
-      <c r="AI1" s="7"/>
-      <c r="AJ1" s="7"/>
-      <c r="AK1" s="7"/>
-      <c r="AL1" s="7"/>
-      <c r="AM1" s="7"/>
-      <c r="AN1" s="7"/>
-      <c r="AO1" s="7"/>
-      <c r="AP1" s="7"/>
-      <c r="AQ1" s="7"/>
-      <c r="AR1" s="7"/>
-      <c r="AS1" s="7"/>
-      <c r="AT1" s="7"/>
-      <c r="AU1" s="7"/>
-      <c r="AV1" s="7"/>
-      <c r="AW1" s="7"/>
-      <c r="AX1" s="7"/>
-      <c r="AY1" s="7"/>
-      <c r="AZ1" s="7"/>
-      <c r="BA1" s="7"/>
-      <c r="BB1" s="7"/>
-      <c r="BC1" s="7"/>
-      <c r="BD1" s="7"/>
-      <c r="BE1" s="7"/>
-      <c r="BF1" s="7"/>
-      <c r="BG1" s="7"/>
-      <c r="BH1" s="7"/>
-      <c r="BI1" s="7"/>
-      <c r="BJ1" s="7"/>
-      <c r="BK1" s="7"/>
-      <c r="BL1" s="7"/>
-      <c r="BM1" s="7"/>
-      <c r="BN1" s="7"/>
-      <c r="BO1" s="7"/>
-      <c r="BP1" s="7"/>
-      <c r="BQ1" s="7"/>
-      <c r="BR1" s="7"/>
-      <c r="BS1" s="7"/>
-      <c r="BT1" s="7"/>
-      <c r="BU1" s="7"/>
-      <c r="BV1" s="7"/>
-      <c r="BW1" s="7"/>
-      <c r="BX1" s="7"/>
-      <c r="BY1" s="7"/>
-      <c r="BZ1" s="7"/>
-      <c r="CA1" s="7"/>
-      <c r="CB1" s="7"/>
-      <c r="CC1" s="7"/>
-      <c r="CD1" s="7"/>
-      <c r="CE1" s="7"/>
-      <c r="CF1" s="7"/>
-      <c r="CG1" s="7"/>
-      <c r="CH1" s="7"/>
-      <c r="CI1" s="7"/>
-      <c r="CJ1" s="7"/>
-      <c r="CK1" s="7"/>
-      <c r="CL1" s="7"/>
-      <c r="CM1" s="7"/>
-      <c r="CN1" s="7"/>
-      <c r="CO1" s="7"/>
-      <c r="CP1" s="7"/>
-      <c r="CQ1" s="7"/>
-      <c r="CR1" s="7"/>
-      <c r="CS1" s="7"/>
-      <c r="CT1" s="7"/>
-      <c r="CU1" s="7"/>
-      <c r="CV1" s="7"/>
-      <c r="CW1" s="7"/>
-      <c r="CX1" s="7"/>
-      <c r="CY1" s="7"/>
-      <c r="CZ1" s="7"/>
-      <c r="DA1" s="7"/>
-      <c r="DB1" s="7"/>
-      <c r="DC1" s="7"/>
-      <c r="DD1" s="7"/>
-      <c r="DE1" s="7"/>
-      <c r="DF1" s="7"/>
-      <c r="DG1" s="7"/>
-      <c r="DH1" s="7"/>
-      <c r="DI1" s="7"/>
-      <c r="DJ1" s="7"/>
-      <c r="DK1" s="7"/>
-      <c r="DL1" s="7"/>
-      <c r="DM1" s="7"/>
-      <c r="DN1" s="7"/>
-      <c r="DO1" s="7"/>
-      <c r="DP1" s="7"/>
-      <c r="DQ1" s="7"/>
-      <c r="DR1" s="7"/>
-      <c r="DS1" s="7"/>
-      <c r="DT1" s="7"/>
-      <c r="DU1" s="7"/>
-      <c r="DV1" s="7"/>
-      <c r="DW1" s="7"/>
-      <c r="DX1" s="7"/>
-      <c r="DY1" s="7"/>
-      <c r="DZ1" s="7"/>
-      <c r="EA1" s="7"/>
-      <c r="EB1" s="7"/>
-      <c r="EC1" s="7"/>
-      <c r="ED1" s="7"/>
-      <c r="EE1" s="7"/>
-      <c r="EF1" s="7"/>
-      <c r="EG1" s="7"/>
-      <c r="EH1" s="7"/>
-      <c r="EI1" s="7"/>
-      <c r="EJ1" s="7"/>
-      <c r="EK1" s="7"/>
-      <c r="EL1" s="7"/>
-      <c r="EM1" s="7"/>
-      <c r="EN1" s="7"/>
-      <c r="EO1" s="7"/>
-      <c r="EP1" s="7"/>
-      <c r="EQ1" s="7"/>
-      <c r="ER1" s="7"/>
-      <c r="ES1" s="7"/>
-      <c r="ET1" s="7"/>
-      <c r="EU1" s="7"/>
-      <c r="EV1" s="7"/>
-      <c r="EW1" s="7"/>
-      <c r="EX1" s="7"/>
-      <c r="EY1" s="7"/>
-      <c r="EZ1" s="7"/>
-      <c r="FA1" s="7"/>
-      <c r="FB1" s="7"/>
-      <c r="FC1" s="7"/>
-      <c r="FD1" s="7"/>
-      <c r="FE1" s="7"/>
-      <c r="FF1" s="7"/>
-      <c r="FG1" s="7"/>
-      <c r="FH1" s="7"/>
-      <c r="FI1" s="7"/>
-      <c r="FJ1" s="7"/>
-      <c r="FK1" s="7"/>
-      <c r="FL1" s="7"/>
-      <c r="FM1" s="7"/>
-      <c r="FN1" s="7"/>
-      <c r="FO1" s="7"/>
-      <c r="FP1" s="7"/>
-      <c r="FQ1" s="7"/>
-      <c r="FR1" s="7"/>
-      <c r="FS1" s="7"/>
-      <c r="FT1" s="7"/>
-      <c r="FU1" s="7"/>
-      <c r="FV1" s="7"/>
-      <c r="FW1" s="7"/>
-      <c r="FX1" s="7"/>
-      <c r="FY1" s="7"/>
-      <c r="FZ1" s="7"/>
-      <c r="GA1" s="7"/>
-      <c r="GB1" s="7"/>
-      <c r="GC1" s="7"/>
-      <c r="GD1" s="7"/>
-      <c r="GE1" s="7"/>
-      <c r="GF1" s="7"/>
-      <c r="GG1" s="7"/>
-      <c r="GH1" s="7"/>
-      <c r="GI1" s="7"/>
-      <c r="GJ1" s="7"/>
-      <c r="GK1" s="7"/>
-      <c r="GL1" s="7"/>
-      <c r="GM1" s="7"/>
-      <c r="GN1" s="7"/>
-      <c r="GO1" s="7"/>
-      <c r="GP1" s="7"/>
-      <c r="GQ1" s="7"/>
-      <c r="GR1" s="7"/>
-      <c r="GS1" s="7"/>
-      <c r="GT1" s="7"/>
-      <c r="GU1" s="7"/>
-      <c r="GV1" s="7"/>
-      <c r="GW1" s="7"/>
-      <c r="GX1" s="7"/>
-      <c r="GY1" s="7"/>
-      <c r="GZ1" s="7"/>
-      <c r="HA1" s="7"/>
-      <c r="HB1" s="7"/>
-      <c r="HC1" s="7"/>
-      <c r="HD1" s="7"/>
-      <c r="HE1" s="7"/>
-      <c r="HF1" s="7"/>
-      <c r="HG1" s="7"/>
-      <c r="HH1" s="7"/>
-      <c r="HI1" s="7"/>
-      <c r="HJ1" s="7"/>
-      <c r="HK1" s="7"/>
-      <c r="HL1" s="7"/>
-      <c r="HM1" s="7"/>
-      <c r="HN1" s="7"/>
-      <c r="HO1" s="7"/>
-      <c r="HP1" s="7"/>
-      <c r="HQ1" s="7"/>
-      <c r="HR1" s="7"/>
-      <c r="HS1" s="7"/>
-      <c r="HT1" s="7"/>
-      <c r="HU1" s="7"/>
-      <c r="HV1" s="7"/>
-      <c r="HW1" s="7"/>
-      <c r="HX1" s="7"/>
-      <c r="HY1" s="7"/>
-      <c r="HZ1" s="7"/>
-      <c r="IA1" s="7"/>
-      <c r="IB1" s="7"/>
-      <c r="IC1" s="7"/>
-      <c r="ID1" s="7"/>
-      <c r="IE1" s="7"/>
-      <c r="IF1" s="7"/>
-      <c r="IG1" s="7"/>
-      <c r="IH1" s="7"/>
-      <c r="II1" s="7"/>
-      <c r="IJ1" s="7"/>
-      <c r="IK1" s="7"/>
-      <c r="IL1" s="7"/>
-      <c r="IM1" s="7"/>
-      <c r="IN1" s="7"/>
-      <c r="IO1" s="7"/>
-      <c r="IP1" s="7"/>
-      <c r="IQ1" s="7"/>
-      <c r="IR1" s="7"/>
-      <c r="IS1" s="7"/>
-      <c r="IT1" s="7"/>
-      <c r="IU1" s="7"/>
-      <c r="IV1" s="7"/>
-      <c r="IW1" s="7"/>
-      <c r="IX1" s="7"/>
-      <c r="IY1" s="7"/>
-      <c r="IZ1" s="7"/>
-      <c r="JA1" s="7"/>
-      <c r="JB1" s="7"/>
-      <c r="JC1" s="7"/>
-      <c r="JD1" s="7"/>
-      <c r="JE1" s="7"/>
-      <c r="JF1" s="7"/>
-      <c r="JG1" s="7"/>
-      <c r="JH1" s="7"/>
-      <c r="JI1" s="7"/>
-      <c r="JJ1" s="7"/>
-      <c r="JK1" s="7"/>
-      <c r="JL1" s="7"/>
-      <c r="JM1" s="7"/>
-      <c r="JN1" s="7"/>
-      <c r="JO1" s="7"/>
-      <c r="JP1" s="7"/>
-      <c r="JQ1" s="7"/>
-      <c r="JR1" s="7"/>
-      <c r="JS1" s="7"/>
-      <c r="JT1" s="7"/>
-      <c r="JU1" s="7"/>
-      <c r="JV1" s="7"/>
-      <c r="JW1" s="7"/>
-      <c r="JX1" s="7"/>
-      <c r="JY1" s="7"/>
-      <c r="JZ1" s="7"/>
-      <c r="KA1" s="7"/>
-      <c r="KB1" s="7"/>
-      <c r="KC1" s="7"/>
-      <c r="KD1" s="7"/>
-      <c r="KE1" s="7"/>
-      <c r="KF1" s="7"/>
-      <c r="KG1" s="7"/>
-      <c r="KH1" s="7"/>
-      <c r="KI1" s="7"/>
-      <c r="KJ1" s="7"/>
-      <c r="KK1" s="7"/>
-      <c r="KL1" s="7"/>
-      <c r="KM1" s="7"/>
-      <c r="KN1" s="7"/>
-      <c r="KO1" s="7"/>
-      <c r="KP1" s="7"/>
-      <c r="KQ1" s="7"/>
-      <c r="KR1" s="7"/>
-      <c r="KS1" s="7"/>
-      <c r="KT1" s="7"/>
-      <c r="KU1" s="7"/>
-      <c r="KV1" s="7"/>
-      <c r="KW1" s="7"/>
-      <c r="KX1" s="7"/>
-      <c r="KY1" s="7"/>
-      <c r="KZ1" s="7"/>
-      <c r="LA1" s="7"/>
-      <c r="LB1" s="7"/>
-      <c r="LC1" s="7"/>
-      <c r="LD1" s="7"/>
-      <c r="LE1" s="7"/>
-      <c r="LF1" s="7"/>
-      <c r="LG1" s="7"/>
-      <c r="LH1" s="7"/>
-      <c r="LI1" s="7"/>
-      <c r="LJ1" s="7"/>
-      <c r="LK1" s="7"/>
-      <c r="LL1" s="7"/>
-      <c r="LM1" s="7"/>
-      <c r="LN1" s="7"/>
-      <c r="LO1" s="7"/>
-      <c r="LP1" s="7"/>
-      <c r="LQ1" s="7"/>
-      <c r="LR1" s="7"/>
-      <c r="LS1" s="7"/>
-      <c r="LT1" s="7"/>
-      <c r="LU1" s="7"/>
-      <c r="LV1" s="7"/>
-      <c r="LW1" s="7"/>
-      <c r="LX1" s="7"/>
-      <c r="LY1" s="7"/>
-      <c r="LZ1" s="7"/>
-      <c r="MA1" s="7"/>
-      <c r="MB1" s="7"/>
-      <c r="MC1" s="7"/>
-      <c r="MD1" s="7"/>
-      <c r="ME1" s="7"/>
-      <c r="MF1" s="7"/>
-      <c r="MG1" s="7"/>
-      <c r="MH1" s="7"/>
-      <c r="MI1" s="7"/>
-      <c r="MJ1" s="7"/>
-      <c r="MK1" s="7"/>
-      <c r="ML1" s="7"/>
-      <c r="MM1" s="7"/>
-      <c r="MN1" s="7"/>
-      <c r="MO1" s="7"/>
-      <c r="MP1" s="7"/>
-      <c r="MQ1" s="7"/>
-      <c r="MR1" s="7"/>
-      <c r="MS1" s="7"/>
-      <c r="MT1" s="7"/>
-      <c r="MU1" s="7"/>
-      <c r="MV1" s="7"/>
-      <c r="MW1" s="7"/>
-      <c r="MX1" s="7"/>
-      <c r="MY1" s="7"/>
-      <c r="MZ1" s="7"/>
-      <c r="NA1" s="7"/>
-      <c r="NB1" s="7"/>
-      <c r="NC1" s="7"/>
-      <c r="ND1" s="7"/>
-      <c r="NE1" s="7"/>
-      <c r="NF1" s="7"/>
-      <c r="NG1" s="7"/>
-      <c r="NH1" s="7"/>
-      <c r="NI1" s="7"/>
-      <c r="NJ1" s="7"/>
-      <c r="NK1" s="7"/>
-      <c r="NL1" s="7"/>
-      <c r="NM1" s="7"/>
-      <c r="NN1" s="7"/>
-      <c r="NO1" s="7"/>
-      <c r="NP1" s="7"/>
-      <c r="NQ1" s="7"/>
-      <c r="NR1" s="7"/>
-      <c r="NS1" s="7"/>
-      <c r="NT1" s="7"/>
-      <c r="NU1" s="7"/>
-      <c r="NV1" s="7"/>
-      <c r="NW1" s="7"/>
-      <c r="NX1" s="7"/>
-      <c r="NY1" s="7"/>
-      <c r="NZ1" s="7"/>
-      <c r="OA1" s="7"/>
-      <c r="OB1" s="7"/>
-      <c r="OC1" s="7"/>
-      <c r="OD1" s="7"/>
-      <c r="OE1" s="7"/>
-      <c r="OF1" s="7"/>
-      <c r="OG1" s="7"/>
-      <c r="OH1" s="7"/>
-      <c r="OI1" s="7"/>
-      <c r="OJ1" s="7"/>
-      <c r="OK1" s="7"/>
-      <c r="OL1" s="7"/>
-      <c r="OM1" s="7"/>
-      <c r="ON1" s="7"/>
-      <c r="OO1" s="7"/>
-      <c r="OP1" s="7"/>
-      <c r="OQ1" s="7"/>
-      <c r="OR1" s="7"/>
-      <c r="OS1" s="7"/>
-      <c r="OT1" s="7"/>
-      <c r="OU1" s="7"/>
-      <c r="OV1" s="7"/>
-    </row>
-    <row r="2" spans="1:412" ht="24.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="5"/>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="5"/>
-      <c r="N2" s="5"/>
-      <c r="O2" s="5"/>
-      <c r="P2" s="5"/>
-      <c r="Q2" s="5"/>
-      <c r="R2" s="5"/>
-      <c r="S2" s="5"/>
-    </row>
-    <row r="3" spans="1:412" x14ac:dyDescent="0.25">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
-      <c r="J3" s="5"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="5"/>
-      <c r="N3" s="5"/>
-      <c r="O3" s="5"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="5"/>
-      <c r="R3" s="5"/>
-      <c r="S3" s="5"/>
-    </row>
-    <row r="4" spans="1:412" x14ac:dyDescent="0.25">
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="5"/>
-      <c r="O4" s="5"/>
-      <c r="P4" s="5"/>
-      <c r="Q4" s="5"/>
-      <c r="R4" s="5"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
-      <x14:slicerList>
-        <x14:slicer r:id="rId2"/>
-      </x14:slicerList>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB824F1-05C1-4F36-BA7D-F3A6DB21A03D}">
   <dimension ref="A3:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B59" sqref="B59"/>
     </sheetView>
   </sheetViews>
@@ -26277,15 +25769,15 @@
   </cols>
   <sheetData>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
@@ -26299,57 +25791,57 @@
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="4">
+      <c r="B5" s="3">
         <v>50000</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="3">
         <v>70000</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="3">
         <v>54000</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="4">
+      <c r="B6" s="3">
         <v>100000</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="3">
         <v>120000</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="3">
         <v>113333.33333333333</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
+      <c r="B7" s="3">
         <v>60000</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>103333.33333333333</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="3">
         <v>76250</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B25" t="s">
@@ -26363,83 +25855,82 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B26" s="1">
+      <c r="B26">
         <v>1</v>
       </c>
-      <c r="C26" s="1">
+      <c r="C26">
         <v>1</v>
       </c>
-      <c r="D26" s="1">
+      <c r="D26">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B27" s="1">
+      <c r="B27">
         <v>1</v>
       </c>
-      <c r="C27" s="1">
+      <c r="C27">
         <v>1</v>
       </c>
-      <c r="D27" s="1">
+      <c r="D27">
         <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B28" s="1">
+      <c r="B28">
         <v>2</v>
       </c>
-      <c r="C28" s="1">
+      <c r="C28">
         <v>1</v>
       </c>
-      <c r="D28" s="1">
+      <c r="D28">
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="1">
+      <c r="B29">
         <v>1</v>
       </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1">
+      <c r="D29">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B30" s="1">
+      <c r="B30">
         <v>5</v>
       </c>
-      <c r="C30" s="1">
+      <c r="C30">
         <v>3</v>
       </c>
-      <c r="D30" s="1">
+      <c r="D30">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" s="1" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B46" t="s">
@@ -26453,54 +25944,52 @@
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="3" t="s">
+      <c r="A47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B47" s="1">
+      <c r="B47">
         <v>1</v>
       </c>
-      <c r="C47" s="1">
+      <c r="C47">
         <v>3</v>
       </c>
-      <c r="D47" s="1">
+      <c r="D47">
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B48" s="1">
+      <c r="B48">
         <v>3</v>
       </c>
-      <c r="C48" s="1"/>
-      <c r="D48" s="1">
+      <c r="D48">
         <v>3</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B49" s="1">
+      <c r="B49">
         <v>1</v>
       </c>
-      <c r="C49" s="1"/>
-      <c r="D49" s="1">
+      <c r="D49">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B50" s="1">
+      <c r="B50">
         <v>5</v>
       </c>
-      <c r="C50" s="1">
+      <c r="C50">
         <v>3</v>
       </c>
-      <c r="D50" s="1">
+      <c r="D50">
         <v>8</v>
       </c>
     </row>
@@ -26508,4 +25997,486 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId4"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7DEDC9-7D96-403A-B9F5-80E3B033F387}">
+  <dimension ref="A1:OV4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" zoomScale="66" workbookViewId="0">
+      <selection activeCell="V3" sqref="V3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:412" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I1" s="5"/>
+      <c r="T1"/>
+      <c r="U1"/>
+      <c r="V1"/>
+      <c r="W1"/>
+      <c r="X1"/>
+      <c r="Y1"/>
+      <c r="Z1"/>
+      <c r="AA1"/>
+      <c r="AB1"/>
+      <c r="AC1"/>
+      <c r="AD1"/>
+      <c r="AE1"/>
+      <c r="AF1"/>
+      <c r="AG1"/>
+      <c r="AH1"/>
+      <c r="AI1"/>
+      <c r="AJ1"/>
+      <c r="AK1"/>
+      <c r="AL1"/>
+      <c r="AM1"/>
+      <c r="AN1"/>
+      <c r="AO1"/>
+      <c r="AP1"/>
+      <c r="AQ1"/>
+      <c r="AR1"/>
+      <c r="AS1"/>
+      <c r="AT1"/>
+      <c r="AU1"/>
+      <c r="AV1"/>
+      <c r="AW1"/>
+      <c r="AX1"/>
+      <c r="AY1"/>
+      <c r="AZ1"/>
+      <c r="BA1"/>
+      <c r="BB1"/>
+      <c r="BC1"/>
+      <c r="BD1"/>
+      <c r="BE1"/>
+      <c r="BF1"/>
+      <c r="BG1"/>
+      <c r="BH1"/>
+      <c r="BI1"/>
+      <c r="BJ1"/>
+      <c r="BK1"/>
+      <c r="BL1"/>
+      <c r="BM1"/>
+      <c r="BN1"/>
+      <c r="BO1"/>
+      <c r="BP1"/>
+      <c r="BQ1"/>
+      <c r="BR1"/>
+      <c r="BS1"/>
+      <c r="BT1"/>
+      <c r="BU1"/>
+      <c r="BV1"/>
+      <c r="BW1"/>
+      <c r="BX1"/>
+      <c r="BY1"/>
+      <c r="BZ1"/>
+      <c r="CA1"/>
+      <c r="CB1"/>
+      <c r="CC1"/>
+      <c r="CD1"/>
+      <c r="CE1"/>
+      <c r="CF1"/>
+      <c r="CG1"/>
+      <c r="CH1"/>
+      <c r="CI1"/>
+      <c r="CJ1"/>
+      <c r="CK1"/>
+      <c r="CL1"/>
+      <c r="CM1"/>
+      <c r="CN1"/>
+      <c r="CO1"/>
+      <c r="CP1"/>
+      <c r="CQ1"/>
+      <c r="CR1"/>
+      <c r="CS1"/>
+      <c r="CT1"/>
+      <c r="CU1"/>
+      <c r="CV1"/>
+      <c r="CW1"/>
+      <c r="CX1"/>
+      <c r="CY1"/>
+      <c r="CZ1"/>
+      <c r="DA1"/>
+      <c r="DB1"/>
+      <c r="DC1"/>
+      <c r="DD1"/>
+      <c r="DE1"/>
+      <c r="DF1"/>
+      <c r="DG1"/>
+      <c r="DH1"/>
+      <c r="DI1"/>
+      <c r="DJ1"/>
+      <c r="DK1"/>
+      <c r="DL1"/>
+      <c r="DM1"/>
+      <c r="DN1"/>
+      <c r="DO1"/>
+      <c r="DP1"/>
+      <c r="DQ1"/>
+      <c r="DR1"/>
+      <c r="DS1"/>
+      <c r="DT1"/>
+      <c r="DU1"/>
+      <c r="DV1"/>
+      <c r="DW1"/>
+      <c r="DX1"/>
+      <c r="DY1"/>
+      <c r="DZ1"/>
+      <c r="EA1"/>
+      <c r="EB1"/>
+      <c r="EC1"/>
+      <c r="ED1"/>
+      <c r="EE1"/>
+      <c r="EF1"/>
+      <c r="EG1"/>
+      <c r="EH1"/>
+      <c r="EI1"/>
+      <c r="EJ1"/>
+      <c r="EK1"/>
+      <c r="EL1"/>
+      <c r="EM1"/>
+      <c r="EN1"/>
+      <c r="EO1"/>
+      <c r="EP1"/>
+      <c r="EQ1"/>
+      <c r="ER1"/>
+      <c r="ES1"/>
+      <c r="ET1"/>
+      <c r="EU1"/>
+      <c r="EV1"/>
+      <c r="EW1"/>
+      <c r="EX1"/>
+      <c r="EY1"/>
+      <c r="EZ1"/>
+      <c r="FA1"/>
+      <c r="FB1"/>
+      <c r="FC1"/>
+      <c r="FD1"/>
+      <c r="FE1"/>
+      <c r="FF1"/>
+      <c r="FG1"/>
+      <c r="FH1"/>
+      <c r="FI1"/>
+      <c r="FJ1"/>
+      <c r="FK1"/>
+      <c r="FL1"/>
+      <c r="FM1"/>
+      <c r="FN1"/>
+      <c r="FO1"/>
+      <c r="FP1"/>
+      <c r="FQ1"/>
+      <c r="FR1"/>
+      <c r="FS1"/>
+      <c r="FT1"/>
+      <c r="FU1"/>
+      <c r="FV1"/>
+      <c r="FW1"/>
+      <c r="FX1"/>
+      <c r="FY1"/>
+      <c r="FZ1"/>
+      <c r="GA1"/>
+      <c r="GB1"/>
+      <c r="GC1"/>
+      <c r="GD1"/>
+      <c r="GE1"/>
+      <c r="GF1"/>
+      <c r="GG1"/>
+      <c r="GH1"/>
+      <c r="GI1"/>
+      <c r="GJ1"/>
+      <c r="GK1"/>
+      <c r="GL1"/>
+      <c r="GM1"/>
+      <c r="GN1"/>
+      <c r="GO1"/>
+      <c r="GP1"/>
+      <c r="GQ1"/>
+      <c r="GR1"/>
+      <c r="GS1"/>
+      <c r="GT1"/>
+      <c r="GU1"/>
+      <c r="GV1"/>
+      <c r="GW1"/>
+      <c r="GX1"/>
+      <c r="GY1"/>
+      <c r="GZ1"/>
+      <c r="HA1"/>
+      <c r="HB1"/>
+      <c r="HC1"/>
+      <c r="HD1"/>
+      <c r="HE1"/>
+      <c r="HF1"/>
+      <c r="HG1"/>
+      <c r="HH1"/>
+      <c r="HI1"/>
+      <c r="HJ1"/>
+      <c r="HK1"/>
+      <c r="HL1"/>
+      <c r="HM1"/>
+      <c r="HN1"/>
+      <c r="HO1"/>
+      <c r="HP1"/>
+      <c r="HQ1"/>
+      <c r="HR1"/>
+      <c r="HS1"/>
+      <c r="HT1"/>
+      <c r="HU1"/>
+      <c r="HV1"/>
+      <c r="HW1"/>
+      <c r="HX1"/>
+      <c r="HY1"/>
+      <c r="HZ1"/>
+      <c r="IA1"/>
+      <c r="IB1"/>
+      <c r="IC1"/>
+      <c r="ID1"/>
+      <c r="IE1"/>
+      <c r="IF1"/>
+      <c r="IG1"/>
+      <c r="IH1"/>
+      <c r="II1"/>
+      <c r="IJ1"/>
+      <c r="IK1"/>
+      <c r="IL1"/>
+      <c r="IM1"/>
+      <c r="IN1"/>
+      <c r="IO1"/>
+      <c r="IP1"/>
+      <c r="IQ1"/>
+      <c r="IR1"/>
+      <c r="IS1"/>
+      <c r="IT1"/>
+      <c r="IU1"/>
+      <c r="IV1"/>
+      <c r="IW1"/>
+      <c r="IX1"/>
+      <c r="IY1"/>
+      <c r="IZ1"/>
+      <c r="JA1"/>
+      <c r="JB1"/>
+      <c r="JC1"/>
+      <c r="JD1"/>
+      <c r="JE1"/>
+      <c r="JF1"/>
+      <c r="JG1"/>
+      <c r="JH1"/>
+      <c r="JI1"/>
+      <c r="JJ1"/>
+      <c r="JK1"/>
+      <c r="JL1"/>
+      <c r="JM1"/>
+      <c r="JN1"/>
+      <c r="JO1"/>
+      <c r="JP1"/>
+      <c r="JQ1"/>
+      <c r="JR1"/>
+      <c r="JS1"/>
+      <c r="JT1"/>
+      <c r="JU1"/>
+      <c r="JV1"/>
+      <c r="JW1"/>
+      <c r="JX1"/>
+      <c r="JY1"/>
+      <c r="JZ1"/>
+      <c r="KA1"/>
+      <c r="KB1"/>
+      <c r="KC1"/>
+      <c r="KD1"/>
+      <c r="KE1"/>
+      <c r="KF1"/>
+      <c r="KG1"/>
+      <c r="KH1"/>
+      <c r="KI1"/>
+      <c r="KJ1"/>
+      <c r="KK1"/>
+      <c r="KL1"/>
+      <c r="KM1"/>
+      <c r="KN1"/>
+      <c r="KO1"/>
+      <c r="KP1"/>
+      <c r="KQ1"/>
+      <c r="KR1"/>
+      <c r="KS1"/>
+      <c r="KT1"/>
+      <c r="KU1"/>
+      <c r="KV1"/>
+      <c r="KW1"/>
+      <c r="KX1"/>
+      <c r="KY1"/>
+      <c r="KZ1"/>
+      <c r="LA1"/>
+      <c r="LB1"/>
+      <c r="LC1"/>
+      <c r="LD1"/>
+      <c r="LE1"/>
+      <c r="LF1"/>
+      <c r="LG1"/>
+      <c r="LH1"/>
+      <c r="LI1"/>
+      <c r="LJ1"/>
+      <c r="LK1"/>
+      <c r="LL1"/>
+      <c r="LM1"/>
+      <c r="LN1"/>
+      <c r="LO1"/>
+      <c r="LP1"/>
+      <c r="LQ1"/>
+      <c r="LR1"/>
+      <c r="LS1"/>
+      <c r="LT1"/>
+      <c r="LU1"/>
+      <c r="LV1"/>
+      <c r="LW1"/>
+      <c r="LX1"/>
+      <c r="LY1"/>
+      <c r="LZ1"/>
+      <c r="MA1"/>
+      <c r="MB1"/>
+      <c r="MC1"/>
+      <c r="MD1"/>
+      <c r="ME1"/>
+      <c r="MF1"/>
+      <c r="MG1"/>
+      <c r="MH1"/>
+      <c r="MI1"/>
+      <c r="MJ1"/>
+      <c r="MK1"/>
+      <c r="ML1"/>
+      <c r="MM1"/>
+      <c r="MN1"/>
+      <c r="MO1"/>
+      <c r="MP1"/>
+      <c r="MQ1"/>
+      <c r="MR1"/>
+      <c r="MS1"/>
+      <c r="MT1"/>
+      <c r="MU1"/>
+      <c r="MV1"/>
+      <c r="MW1"/>
+      <c r="MX1"/>
+      <c r="MY1"/>
+      <c r="MZ1"/>
+      <c r="NA1"/>
+      <c r="NB1"/>
+      <c r="NC1"/>
+      <c r="ND1"/>
+      <c r="NE1"/>
+      <c r="NF1"/>
+      <c r="NG1"/>
+      <c r="NH1"/>
+      <c r="NI1"/>
+      <c r="NJ1"/>
+      <c r="NK1"/>
+      <c r="NL1"/>
+      <c r="NM1"/>
+      <c r="NN1"/>
+      <c r="NO1"/>
+      <c r="NP1"/>
+      <c r="NQ1"/>
+      <c r="NR1"/>
+      <c r="NS1"/>
+      <c r="NT1"/>
+      <c r="NU1"/>
+      <c r="NV1"/>
+      <c r="NW1"/>
+      <c r="NX1"/>
+      <c r="NY1"/>
+      <c r="NZ1"/>
+      <c r="OA1"/>
+      <c r="OB1"/>
+      <c r="OC1"/>
+      <c r="OD1"/>
+      <c r="OE1"/>
+      <c r="OF1"/>
+      <c r="OG1"/>
+      <c r="OH1"/>
+      <c r="OI1"/>
+      <c r="OJ1"/>
+      <c r="OK1"/>
+      <c r="OL1"/>
+      <c r="OM1"/>
+      <c r="ON1"/>
+      <c r="OO1"/>
+      <c r="OP1"/>
+      <c r="OQ1"/>
+      <c r="OR1"/>
+      <c r="OS1"/>
+      <c r="OT1"/>
+      <c r="OU1"/>
+      <c r="OV1"/>
+    </row>
+    <row r="2" spans="1:412" ht="24.75" x14ac:dyDescent="0.3">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+      <c r="N2" s="4"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="4"/>
+      <c r="Q2" s="4"/>
+      <c r="R2" s="4"/>
+      <c r="S2" s="4"/>
+    </row>
+    <row r="3" spans="1:412" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4"/>
+      <c r="P3" s="4"/>
+      <c r="Q3" s="4"/>
+      <c r="R3" s="4"/>
+      <c r="S3" s="4"/>
+    </row>
+    <row r="4" spans="1:412" x14ac:dyDescent="0.25">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="N4" s="4"/>
+      <c r="O4" s="4"/>
+      <c r="P4" s="4"/>
+      <c r="Q4" s="4"/>
+      <c r="R4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{A8765BA9-456A-4dab-B4F3-ACF838C121DE}">
+      <x14:slicerList>
+        <x14:slicer r:id="rId2"/>
+      </x14:slicerList>
+    </ext>
+  </extLst>
+</worksheet>
 </file>